--- a/Timeline_Feb.xlsx
+++ b/Timeline_Feb.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\INGY\INGY DATA\timeline\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Colin\Desktop\R-Projects\INGY\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -149,7 +149,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -317,6 +317,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -352,6 +369,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -507,21 +541,21 @@
   <dimension ref="A1:N27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="11.28515625" customWidth="1"/>
-    <col min="6" max="6" width="11.7109375" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="20.140625" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" customWidth="1"/>
-    <col min="10" max="10" width="13.85546875" customWidth="1"/>
-    <col min="11" max="11" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="11.75" customWidth="1"/>
+    <col min="7" max="7" width="13.125" customWidth="1"/>
+    <col min="8" max="8" width="20.125" customWidth="1"/>
+    <col min="9" max="9" width="15.125" customWidth="1"/>
+    <col min="10" max="10" width="13.875" customWidth="1"/>
+    <col min="11" max="11" width="12.375" customWidth="1"/>
     <col min="12" max="12" width="12" customWidth="1"/>
-    <col min="13" max="13" width="12.7109375" customWidth="1"/>
-    <col min="14" max="14" width="11.85546875" customWidth="1"/>
+    <col min="13" max="13" width="12.75" customWidth="1"/>
+    <col min="14" max="14" width="11.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
@@ -925,7 +959,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="1">
-        <v>2006</v>
+        <v>2008</v>
       </c>
       <c r="C10" s="1">
         <v>2010</v>
@@ -1096,7 +1130,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="1">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C14" s="1">
         <v>2006</v>
